--- a/paper_templates/Template_Manual.xlsx
+++ b/paper_templates/Template_Manual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pythons\snowball\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04932B6B-EF45-47FF-A2D1-99FC98813314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0481ECE-29E4-46A3-90BF-417CE11D0DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Prior year control testing documentation rolled forward for reference purposes.</t>
   </si>
@@ -135,46 +135,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>사용자명</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한부여일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청자명</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청자 부서명</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인자명</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인일자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인여부</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전승인여부</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>결론</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -183,37 +143,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t>Attribute1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>요청자ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인자ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 요청서 번호</t>
+    <t>Attribute6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -319,20 +253,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -383,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -618,19 +538,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -664,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -692,14 +599,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -720,10 +619,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -744,15 +639,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -769,15 +656,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1433,818 +1312,303 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S31"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="6" width="15.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="18.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="2" customWidth="1"/>
-    <col min="12" max="14" width="18.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="2" customWidth="1"/>
-    <col min="16" max="17" width="20.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="2"/>
-    <col min="21" max="21" width="9.140625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
-    </row>
-    <row r="2" spans="2:19" ht="6" customHeight="1" thickBot="1"/>
-    <row r="3" spans="2:19" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B3" s="36" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="38"/>
-    </row>
-    <row r="4" spans="2:19" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="2:7" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11" t="str">
-        <f>IF(N5="", "X", "O")</f>
-        <v>X</v>
-      </c>
-      <c r="P5" s="11" t="str">
-        <f t="shared" ref="P5:P29" si="0">IF(N5-G5&lt;=0, "O", "X")</f>
-        <v>O</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="13">
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17" t="str">
-        <f>IF(N6="", "X", "O")</f>
-        <v>X</v>
-      </c>
-      <c r="P6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="13">
+      <c r="F6" s="15"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17" t="str">
-        <f t="shared" ref="O7:O29" si="1">IF(N7="", "X", "O")</f>
-        <v>X</v>
-      </c>
-      <c r="P7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="13">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="13">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="13">
+      <c r="F9" s="15"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="13">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="13">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="13">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="13">
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="13">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
         <v>11</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="13">
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
         <v>12</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="13">
+      <c r="F16" s="15"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P17" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="13">
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P18" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="13">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
         <v>15</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P19" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="13">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P20" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="13">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
         <v>17</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P21" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="13">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="11">
         <v>18</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P22" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="2:18" ht="15" customHeight="1">
-      <c r="B23" s="13">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11">
         <v>19</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P23" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="18"/>
-    </row>
-    <row r="24" spans="2:18" ht="15" customHeight="1">
-      <c r="B24" s="13">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11">
         <v>20</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P24" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
-    </row>
-    <row r="25" spans="2:18" ht="15" customHeight="1">
-      <c r="B25" s="13">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11">
         <v>21</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
-    </row>
-    <row r="26" spans="2:18" ht="15" customHeight="1">
-      <c r="B26" s="13">
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11">
         <v>22</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P26" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="13">
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="11">
         <v>23</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P27" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="13">
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="11">
         <v>24</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P28" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B29" s="19">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16">
         <v>25</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="P29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-    </row>
-    <row r="30" spans="2:18" ht="14.45" customHeight="1"/>
-    <row r="31" spans="2:18" s="26" customFormat="1">
-      <c r="B31" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="H31" s="27"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2258,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper_templates/Template_Manual.xlsx
+++ b/paper_templates/Template_Manual.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pythons\snowball\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0481ECE-29E4-46A3-90BF-417CE11D0DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C42CFB-90A8-4D34-8847-F082A3EAE4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Testing Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Population" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="3" r:id="rId1"/>
+    <sheet name="Testing Table" sheetId="1" r:id="rId2"/>
+    <sheet name="Population" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_1.매출채권">#REF!</definedName>
+    <definedName name="※매출매트릭스">#REF!</definedName>
+    <definedName name="A">'[3]4b Consolidated PL'!#REF!</definedName>
     <definedName name="AICPA">[1]Scoping!$M$17</definedName>
     <definedName name="Automated">[1]Scoping!$M$21</definedName>
     <definedName name="ControlType">[1]Scoping!$M$27</definedName>
+    <definedName name="ddd">#REF!</definedName>
     <definedName name="DesiredEvidence">'[1]Drop down'!$I$6:$I$9</definedName>
     <definedName name="Frequency">'[1]Drop down'!$C$6:$C$13</definedName>
     <definedName name="Interim">[1]Scoping!$M$48</definedName>
     <definedName name="ISA">[1]Scoping!$M$12</definedName>
     <definedName name="IT_depend">[1]Scoping!$M$22</definedName>
+    <definedName name="LYN">'[4]4b Consolidated PL'!#REF!</definedName>
     <definedName name="Manual">[1]Scoping!$M$23</definedName>
     <definedName name="NAControlType">[1]Scoping!$M$25</definedName>
     <definedName name="NATest_OE">[1]Scoping!$M$30</definedName>
@@ -59,13 +70,23 @@
     <definedName name="NvsTransLed">"VN"</definedName>
     <definedName name="NvsTreeASD">"V2002-12-31"</definedName>
     <definedName name="NvsValTbl.ACCOUNT">"GL_ACCOUNT_TBL"</definedName>
+    <definedName name="ORG">[5]SETUP!$A$3:$A$7</definedName>
     <definedName name="PCAOB">[1]Scoping!$M$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$C$14</definedName>
+    <definedName name="_xlnm.Print_Area">#REF!</definedName>
+    <definedName name="Print_Area_MI">#REF!</definedName>
+    <definedName name="Question_Type">[6]Values!$B$3:$B$10</definedName>
+    <definedName name="SQL_Col">#REF!</definedName>
     <definedName name="Test_OE">[1]Scoping!$M$32</definedName>
     <definedName name="Type">[1]Scoping!$M$20</definedName>
     <definedName name="TypeTest">'[1]Drop down'!$K$6:$K$9</definedName>
     <definedName name="Update_Else">[1]Scoping!$M$50</definedName>
     <definedName name="US">[1]Scoping!$M$15</definedName>
     <definedName name="YesNoNA">'[1]Drop down'!$G$6:$G$9</definedName>
+    <definedName name="계">#REF!</definedName>
+    <definedName name="ㅁ1">#REF!</definedName>
+    <definedName name="진주원">'[4]4b Consolidated PL'!#REF!</definedName>
+    <definedName name="채권">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Prior year control testing documentation rolled forward for reference purposes.</t>
   </si>
@@ -143,19 +164,83 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Client</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepared by</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>통제번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>통제명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 절차</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토 결과</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Attribute1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Attribute2</t>
+  </si>
+  <si>
+    <t>Attribute3</t>
+  </si>
+  <si>
+    <t>Attribute4</t>
+  </si>
+  <si>
+    <t>Attribute5</t>
+  </si>
+  <si>
     <t>Attribute6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute7</t>
+  </si>
+  <si>
+    <t>Attribute8</t>
+  </si>
+  <si>
+    <t>Attribute9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,8 +343,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="KPMG Logo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,12 +421,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -352,8 +487,130 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -364,205 +621,14 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -570,8 +636,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -580,26 +649,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -607,39 +680,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -648,26 +689,94 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -681,13 +790,24 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3BAA72D3-48D0-42D1-83E9-40CD5B91847D}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{D3C46FC7-D9BC-4292-9B5B-00C7E85054ED}"/>
     <cellStyle name="표준 2 2" xfId="3" xr:uid="{22F1B8A7-6B8E-41C2-A38F-E45B49D29781}"/>
     <cellStyle name="표준 3" xfId="4" xr:uid="{3447A1CD-01E1-479A-AFD3-E7F2467FC7CF}"/>
+    <cellStyle name="표준 4" xfId="7" xr:uid="{F123B97E-6870-4583-BB12-4C39331A4040}"/>
+    <cellStyle name="표준_Operating_test(1)" xfId="6" xr:uid="{A7612A3D-4BF6-422B-BC3B-77F9137D8CE5}"/>
+    <cellStyle name="표준_Sheet1" xfId="5" xr:uid="{F79A5045-A728-4EBE-A885-CCEF4A5F1AF0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,6 +1107,199 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="RCM"/>
+      <sheetName val="Template"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1 START HERE | Overview"/>
+      <sheetName val="2 Financial &amp; Disclosure Accts"/>
+      <sheetName val="3 Cycles &amp; Transactions"/>
+      <sheetName val="4 Transaction Risk Assessment"/>
+      <sheetName val="4c Cycle Coverage"/>
+      <sheetName val="4a Consolidated BS"/>
+      <sheetName val="4b Consolidated PL"/>
+      <sheetName val=" Notes On Categories"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1 START HERE | Overview"/>
+      <sheetName val="2 Financial &amp; Disclosure Accts"/>
+      <sheetName val="3 Cycles &amp; Transactions"/>
+      <sheetName val="4 Transaction Risk Assessment"/>
+      <sheetName val="4c Cycle Coverage"/>
+      <sheetName val="4a Consolidated BS"/>
+      <sheetName val="4b Consolidated PL"/>
+      <sheetName val=" Notes On Categories"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="결과 (2)"/>
+      <sheetName val="포항"/>
+      <sheetName val="TWB"/>
+      <sheetName val="결과"/>
+      <sheetName val="SETUP"/>
+      <sheetName val="도움말"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>HQ</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>PP</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>KP</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BP</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>%</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Parameters"/>
+      <sheetName val="Template"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Activity Template"/>
+      <sheetName val="Example"/>
+      <sheetName val="Values"/>
+      <sheetName val="LU"/>
+      <sheetName val="SETUP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Yes/No</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Multiple Choice</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Multiple Selection</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Number</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Date</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Text</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>User Name</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Comment Only</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1308,307 +1621,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA2E115-5BBA-494B-AF0D-AE7B93FEB488}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="39" style="26" customWidth="1"/>
+    <col min="3" max="3" width="115" style="26" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="33"/>
+    </row>
+    <row r="11" spans="1:4" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="32"/>
+    </row>
+    <row r="13" spans="1:4" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="B15" s="40"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="B16" s="40"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" customHeight="1">
+      <c r="B17" s="40"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1">
+      <c r="B18" s="40"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1">
+      <c r="B19" s="40"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1">
+      <c r="B20" s="40"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="2:4" ht="15" customHeight="1">
+      <c r="B21" s="40"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1">
+      <c r="B22" s="40"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1">
+      <c r="B23" s="40"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1">
+      <c r="B24" s="40"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1">
+      <c r="B25" s="40"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1">
+      <c r="B26" s="40"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1">
+      <c r="B27" s="40"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" customHeight="1">
+      <c r="B28" s="40"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" customHeight="1">
+      <c r="B29" s="40"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" customHeight="1">
+      <c r="B30" s="40"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" customHeight="1">
+      <c r="B31" s="40"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="2:4" ht="15" customHeight="1">
+      <c r="D32" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.70866141732283472" bottom="0" header="0.51181102362204722" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA5D280-60A6-430D-9E73-453CF186F018}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G31"/>
+  <dimension ref="B1:O66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="10" width="24" style="2" customWidth="1"/>
+    <col min="11" max="12" width="20.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="2:15" ht="6" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="2:7" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="13.5">
+      <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="5">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="5">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="5">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="5">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="5">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="5">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="5">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="5">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="5">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="5">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="5">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="5">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="5">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="5">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="5">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="5">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="5">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="5">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="5">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="5">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="5">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="5">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="5">
+        <v>37</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="5">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="5">
+        <v>39</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="5">
+        <v>40</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="5">
+        <v>41</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="5">
+        <v>42</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="5">
+        <v>43</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="5">
+        <v>44</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="5">
+        <v>45</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="5">
+        <v>46</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="5">
+        <v>47</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="5">
+        <v>48</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="5">
+        <v>49</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="5">
+        <v>50</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="5">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="5">
+        <v>52</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="5">
+        <v>53</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="5">
+        <v>54</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="5">
+        <v>55</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="5">
+        <v>56</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="5">
+        <v>57</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="5">
+        <v>58</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="5">
+        <v>59</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="2:15" ht="13.5" thickBot="1">
+      <c r="B64" s="9">
+        <v>60</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="2:12" ht="14.45" customHeight="1"/>
+    <row r="66" spans="2:12" s="14" customFormat="1">
+      <c r="B66" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
-        <v>14</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
-        <v>16</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>17</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
-        <v>18</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
-        <v>19</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
-        <v>20</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
-        <v>21</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
-        <v>22</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
-        <v>23</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="11">
-        <v>24</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
-        <v>25</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="22"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,13 +3014,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF9F84-EC89-4DDB-BCC7-9EF33BC2CCF9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
